--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-598597.1732996643</v>
+        <v>-537794.8191434206</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17369085.08859304</v>
+        <v>16732119.5794859</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484444</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9358948.168150291</v>
+        <v>9359684.596102878</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +659,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>273.9029617869513</v>
+        <v>411.2198592175983</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -817,7 +817,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>80.61608517870611</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -826,16 +826,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>12.7875655954189</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>12.11458453129857</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>411.6213736860523</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,19 +1060,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>160.0107818174404</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>102.2146311366275</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>135.8669737573976</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.5706636039959</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1306,7 +1306,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>132.8986018275843</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1351,10 +1351,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>81.01098805494614</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>237.2510482247591</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1421,16 +1421,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>117.4106316351431</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>122.9742767430578</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>114.8528499950186</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>148.4863177380291</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>31.20256635794556</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.30825486907117</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361702</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.24836057249257</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>130.6530054213137</v>
       </c>
     </row>
     <row r="18">
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>13.99728392830507</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>144.4937753855475</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>69.59563885540257</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2141,7 +2141,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>127.2566430010473</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225706</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,7 +2299,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>61.08641542222862</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>209.9324537163693</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>152.0176216574265</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2776,7 +2776,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3016,7 +3016,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>181.1449619021827</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3193,7 +3193,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3253,7 +3253,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.133574646794891</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934472</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762359</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>417.5253377496635</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385522</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E38" t="n">
         <v>413.2012870545404</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3661,25 +3661,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D40" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F40" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432291</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934465</v>
+        <v>4.96793274293449</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T40" t="n">
         <v>227.1849416185819</v>
@@ -3727,7 +3727,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3898,25 +3898,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D43" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F43" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H43" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>4.96793274293449</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T43" t="n">
         <v>227.1849416185819</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006785</v>
+        <v>259.4129604006783</v>
       </c>
       <c r="V43" t="n">
         <v>267.8502427095265</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4135,25 +4135,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F46" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856821</v>
       </c>
       <c r="H46" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>4.96793274293449</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T46" t="n">
         <v>227.1849416185819</v>
@@ -4201,7 +4201,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400.4118020839785</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="C2" t="n">
-        <v>366.3097333078059</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="D2" t="n">
-        <v>334.4403525226545</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V2" t="n">
-        <v>1250.914606198081</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W2" t="n">
-        <v>1250.099555649518</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X2" t="n">
-        <v>830.9570922288289</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y2" t="n">
-        <v>826.7113725688863</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>720.6493845649613</v>
+        <v>1041.328054693135</v>
       </c>
       <c r="C4" t="n">
-        <v>548.0876730481863</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>382.209680249709</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>212.4516765004462</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>929.6236371651722</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1349.676536110076</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>1429.886162364244</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="V4" t="n">
-        <v>1429.886162364244</v>
+        <v>1977.98450317831</v>
       </c>
       <c r="W4" t="n">
-        <v>1157.859757950536</v>
+        <v>1705.958098764602</v>
       </c>
       <c r="X4" t="n">
-        <v>912.4680032839485</v>
+        <v>1460.566344098014</v>
       </c>
       <c r="Y4" t="n">
-        <v>912.4680032839485</v>
+        <v>1233.146673412122</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1238.4840759347</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C5" t="n">
-        <v>809.9024016719685</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D5" t="n">
-        <v>778.0330208868171</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>748.2986800855164</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>724.4716545351282</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1684.946476008399</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1280.091021419432</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>1264.988962039147</v>
+        <v>1007.519726626896</v>
       </c>
       <c r="Y5" t="n">
-        <v>1260.743242379204</v>
+        <v>1003.274006966953</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N6" t="n">
-        <v>453.9965675465116</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>673.9125995673351</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>501.35088805056</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>335.4728952520827</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>335.4728952520827</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>173.8458429112338</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1233.544589050298</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1418.750429333523</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W7" t="n">
-        <v>1146.724024919814</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>901.3322702532269</v>
+        <v>1324.277995859497</v>
       </c>
       <c r="Y7" t="n">
-        <v>673.9125995673351</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1664.622537305567</v>
+        <v>1777.329602475393</v>
       </c>
       <c r="C8" t="n">
-        <v>1226.48006448899</v>
+        <v>1743.22753369922</v>
       </c>
       <c r="D8" t="n">
-        <v>1194.610683703839</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>1164.876342902538</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>737.008913311746</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>335.6110819350098</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>46.48092737822609</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>46.0641380053661</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>46.0641380053661</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>46.0641380053661</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>46.0641380053661</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>46.0641380053661</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>447.4666339238422</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1017.510341740248</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1587.554049556653</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2134.052835515248</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2303.206900268305</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2303.206900268305</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2303.206900268305</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2043.984597585322</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1707.044533338861</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W8" t="n">
-        <v>1706.229482790299</v>
+        <v>1818.936547960124</v>
       </c>
       <c r="X8" t="n">
-        <v>1691.127423410013</v>
+        <v>1803.834488579839</v>
       </c>
       <c r="Y8" t="n">
-        <v>1686.881703750071</v>
+        <v>1799.588768919897</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>552.2358829966589</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>445.7794218333012</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>350.6891329798544</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>256.5687183068081</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>173.1848799229697</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>87.79979018915363</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>46.0641380053661</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>72.12781116582369</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>72.12781116582369</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K9" t="n">
-        <v>72.12781116582369</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="L9" t="n">
-        <v>72.12781116582369</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="M9" t="n">
-        <v>72.12781116582369</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="N9" t="n">
-        <v>72.12781116582369</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="O9" t="n">
-        <v>481.3484749413544</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="P9" t="n">
-        <v>1051.39218275776</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1592.131121389835</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1709.303899484175</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1645.848461932558</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1515.66981826316</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1339.333271263128</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1140.215753325127</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>954.8929990583213</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>800.0255632972013</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>673.5397840764221</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1119.461136254677</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>946.8994247379018</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>781.0214319394245</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>611.2634281901617</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>434.5563741519179</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>268.9650991777456</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>134.7240872306908</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>46.0641380053661</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>132.643823170056</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>407.4022777411915</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>466.0953118692914</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>925.5791790502044</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1367.837982207849</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1787.507231433631</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2135.014125403972</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2303.206900268305</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2281.789078973677</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2122.547710271673</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1876.668263850128</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1598.235263103234</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1311.279754973664</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1311.279754973664</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1311.279754973664</v>
+        <v>1324.277995859497</v>
       </c>
       <c r="Y10" t="n">
-        <v>1311.279754973664</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.953835041026</v>
+        <v>2518.566862261897</v>
       </c>
       <c r="C11" t="n">
-        <v>2079.306311581674</v>
+        <v>2080.424389445321</v>
       </c>
       <c r="D11" t="n">
-        <v>1643.396526756118</v>
+        <v>1644.514604619765</v>
       </c>
       <c r="E11" t="n">
-        <v>1209.621781914413</v>
+        <v>1210.73985977806</v>
       </c>
       <c r="F11" t="n">
-        <v>781.7543523236207</v>
+        <v>782.8724301872682</v>
       </c>
       <c r="G11" t="n">
-        <v>380.3565209468846</v>
+        <v>381.474598810532</v>
       </c>
       <c r="H11" t="n">
-        <v>91.22636639010088</v>
+        <v>92.34444425374832</v>
       </c>
       <c r="I11" t="n">
-        <v>90.80957701724088</v>
+        <v>91.92765488088833</v>
       </c>
       <c r="J11" t="n">
-        <v>90.80957701724088</v>
+        <v>91.92765488088833</v>
       </c>
       <c r="K11" t="n">
-        <v>90.80957701724088</v>
+        <v>91.92765488088833</v>
       </c>
       <c r="L11" t="n">
-        <v>90.80957701724088</v>
+        <v>91.92765488088833</v>
       </c>
       <c r="M11" t="n">
-        <v>892.567943158335</v>
+        <v>1229.532384031881</v>
       </c>
       <c r="N11" t="n">
-        <v>2016.336458746691</v>
+        <v>2355.263367468328</v>
       </c>
       <c r="O11" t="n">
-        <v>2996.516125316997</v>
+        <v>3335.443034038635</v>
       </c>
       <c r="P11" t="n">
-        <v>3824.826000150393</v>
+        <v>3880.729893332766</v>
       </c>
       <c r="Q11" t="n">
-        <v>4371.324786108988</v>
+        <v>4427.22867929136</v>
       </c>
       <c r="R11" t="n">
-        <v>4540.478850862044</v>
+        <v>4596.382744044417</v>
       </c>
       <c r="S11" t="n">
-        <v>4456.826977045881</v>
+        <v>4512.730870228253</v>
       </c>
       <c r="T11" t="n">
-        <v>4236.75974991892</v>
+        <v>4512.730870228253</v>
       </c>
       <c r="U11" t="n">
-        <v>3977.537447235936</v>
+        <v>4253.50856754527</v>
       </c>
       <c r="V11" t="n">
-        <v>3977.537447235936</v>
+        <v>3890.891617479097</v>
       </c>
       <c r="W11" t="n">
-        <v>3572.68199264697</v>
+        <v>3772.295019867841</v>
       </c>
       <c r="X11" t="n">
-        <v>3153.539529226281</v>
+        <v>3353.152556447152</v>
       </c>
       <c r="Y11" t="n">
-        <v>2745.253405525934</v>
+        <v>2944.866432746805</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>596.9813220085337</v>
+        <v>598.0993998721812</v>
       </c>
       <c r="C12" t="n">
-        <v>490.524860845176</v>
+        <v>491.6429387088234</v>
       </c>
       <c r="D12" t="n">
-        <v>395.4345719917292</v>
+        <v>396.5526498553767</v>
       </c>
       <c r="E12" t="n">
-        <v>301.3141573186829</v>
+        <v>302.4322351823304</v>
       </c>
       <c r="F12" t="n">
-        <v>217.9303189348445</v>
+        <v>219.048396798492</v>
       </c>
       <c r="G12" t="n">
-        <v>132.5452292010284</v>
+        <v>133.6633070646758</v>
       </c>
       <c r="H12" t="n">
-        <v>90.80957701724088</v>
+        <v>91.92765488088833</v>
       </c>
       <c r="I12" t="n">
-        <v>90.80957701724088</v>
+        <v>91.92765488088833</v>
       </c>
       <c r="J12" t="n">
-        <v>90.80957701724088</v>
+        <v>416.4859798471006</v>
       </c>
       <c r="K12" t="n">
-        <v>90.80957701724088</v>
+        <v>416.4859798471006</v>
       </c>
       <c r="L12" t="n">
-        <v>90.80957701724088</v>
+        <v>1097.255699633282</v>
       </c>
       <c r="M12" t="n">
-        <v>90.80957701724088</v>
+        <v>1097.255699633282</v>
       </c>
       <c r="N12" t="n">
-        <v>90.80957701724088</v>
+        <v>1097.255699633282</v>
       </c>
       <c r="O12" t="n">
-        <v>276.4144552904363</v>
+        <v>1097.255699633282</v>
       </c>
       <c r="P12" t="n">
-        <v>1096.137621769635</v>
+        <v>1097.255699633282</v>
       </c>
       <c r="Q12" t="n">
-        <v>1636.87656040171</v>
+        <v>1637.994638265357</v>
       </c>
       <c r="R12" t="n">
-        <v>1754.04933849605</v>
+        <v>1755.167416359697</v>
       </c>
       <c r="S12" t="n">
-        <v>1690.593900944433</v>
+        <v>1691.71197880808</v>
       </c>
       <c r="T12" t="n">
-        <v>1560.415257275034</v>
+        <v>1561.533335138682</v>
       </c>
       <c r="U12" t="n">
-        <v>1384.078710275003</v>
+        <v>1385.19678813865</v>
       </c>
       <c r="V12" t="n">
-        <v>1184.961192337002</v>
+        <v>1186.079270200649</v>
       </c>
       <c r="W12" t="n">
-        <v>999.6384380701961</v>
+        <v>1000.756515933844</v>
       </c>
       <c r="X12" t="n">
-        <v>844.771002309076</v>
+        <v>845.8890801727235</v>
       </c>
       <c r="Y12" t="n">
-        <v>718.2852230882968</v>
+        <v>719.4033009519443</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1081.207788403798</v>
+        <v>942.4236919578195</v>
       </c>
       <c r="C13" t="n">
-        <v>908.6460768870224</v>
+        <v>769.8619804410445</v>
       </c>
       <c r="D13" t="n">
-        <v>742.7680840885453</v>
+        <v>603.9839876425672</v>
       </c>
       <c r="E13" t="n">
-        <v>573.0100803392825</v>
+        <v>434.2259838933045</v>
       </c>
       <c r="F13" t="n">
-        <v>396.3030263010387</v>
+        <v>257.5189298550607</v>
       </c>
       <c r="G13" t="n">
-        <v>230.7117513268664</v>
+        <v>91.92765488088833</v>
       </c>
       <c r="H13" t="n">
-        <v>90.80957701724088</v>
+        <v>91.92765488088833</v>
       </c>
       <c r="I13" t="n">
-        <v>90.80957701724088</v>
+        <v>91.92765488088833</v>
       </c>
       <c r="J13" t="n">
-        <v>177.3892621819307</v>
+        <v>178.5073400455782</v>
       </c>
       <c r="K13" t="n">
-        <v>452.1477167530663</v>
+        <v>453.2657946167138</v>
       </c>
       <c r="L13" t="n">
-        <v>870.3575985210274</v>
+        <v>871.4756763846749</v>
       </c>
       <c r="M13" t="n">
-        <v>1329.84146570194</v>
+        <v>1330.959543565588</v>
       </c>
       <c r="N13" t="n">
-        <v>1772.100268859585</v>
+        <v>1773.218346723232</v>
       </c>
       <c r="O13" t="n">
-        <v>2191.769518085366</v>
+        <v>2192.887595949014</v>
       </c>
       <c r="P13" t="n">
-        <v>2539.276412055708</v>
+        <v>2540.394489919356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2707.469186920041</v>
+        <v>2708.587264783688</v>
       </c>
       <c r="R13" t="n">
-        <v>2707.469186920041</v>
+        <v>2687.16944348906</v>
       </c>
       <c r="S13" t="n">
-        <v>2707.469186920041</v>
+        <v>2527.928074787057</v>
       </c>
       <c r="T13" t="n">
-        <v>2583.252745765437</v>
+        <v>2282.048628365512</v>
       </c>
       <c r="U13" t="n">
-        <v>2304.819745018542</v>
+        <v>2166.035648572564</v>
       </c>
       <c r="V13" t="n">
-        <v>2017.864236888973</v>
+        <v>1879.080140442994</v>
       </c>
       <c r="W13" t="n">
-        <v>1745.837832475264</v>
+        <v>1607.053736029286</v>
       </c>
       <c r="X13" t="n">
-        <v>1500.446077808676</v>
+        <v>1361.661981362698</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.026407122785</v>
+        <v>1134.242310676807</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.142920993212</v>
+        <v>2523.260998856859</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.000448176635</v>
+        <v>2085.118526040283</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.090663351079</v>
+        <v>1649.208741214727</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.315918509375</v>
+        <v>1215.433996373022</v>
       </c>
       <c r="F14" t="n">
-        <v>786.4484889185826</v>
+        <v>787.56656678223</v>
       </c>
       <c r="G14" t="n">
-        <v>385.0506575418464</v>
+        <v>386.1687354054939</v>
       </c>
       <c r="H14" t="n">
-        <v>95.92050298506268</v>
+        <v>97.03858084871011</v>
       </c>
       <c r="I14" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585012</v>
       </c>
       <c r="J14" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585012</v>
       </c>
       <c r="K14" t="n">
-        <v>95.50371361220269</v>
+        <v>193.3224277832104</v>
       </c>
       <c r="L14" t="n">
-        <v>1125.312305058333</v>
+        <v>193.3224277832104</v>
       </c>
       <c r="M14" t="n">
-        <v>1125.312305058333</v>
+        <v>1350.370262993761</v>
       </c>
       <c r="N14" t="n">
-        <v>2251.04328849478</v>
+        <v>2476.101246430208</v>
       </c>
       <c r="O14" t="n">
-        <v>3231.222955065087</v>
+        <v>3456.280913000514</v>
       </c>
       <c r="P14" t="n">
-        <v>4059.532829898483</v>
+        <v>4284.59078783391</v>
       </c>
       <c r="Q14" t="n">
-        <v>4606.031615857078</v>
+        <v>4831.089573792506</v>
       </c>
       <c r="R14" t="n">
-        <v>4775.185680610134</v>
+        <v>4831.089573792506</v>
       </c>
       <c r="S14" t="n">
-        <v>4691.533806793971</v>
+        <v>4747.437699976343</v>
       </c>
       <c r="T14" t="n">
-        <v>4471.46657966701</v>
+        <v>4527.370472849381</v>
       </c>
       <c r="U14" t="n">
-        <v>4212.244276984026</v>
+        <v>4268.148170166398</v>
       </c>
       <c r="V14" t="n">
-        <v>4180.726533188122</v>
+        <v>3905.531220100224</v>
       </c>
       <c r="W14" t="n">
-        <v>3775.871078599155</v>
+        <v>3500.675765511258</v>
       </c>
       <c r="X14" t="n">
-        <v>3356.728615178466</v>
+        <v>3081.533302090569</v>
       </c>
       <c r="Y14" t="n">
-        <v>2948.442491478119</v>
+        <v>2673.247178390222</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>601.6754586034955</v>
+        <v>602.7935364671429</v>
       </c>
       <c r="C15" t="n">
-        <v>495.2189974401377</v>
+        <v>496.3370753037852</v>
       </c>
       <c r="D15" t="n">
-        <v>400.128708586691</v>
+        <v>401.2467864503384</v>
       </c>
       <c r="E15" t="n">
-        <v>306.0082939136447</v>
+        <v>307.1263717772921</v>
       </c>
       <c r="F15" t="n">
-        <v>222.6244555298063</v>
+        <v>223.7425333934538</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2393657959902</v>
+        <v>138.3574436596377</v>
       </c>
       <c r="H15" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585012</v>
       </c>
       <c r="I15" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585012</v>
       </c>
       <c r="J15" t="n">
-        <v>95.50371361220269</v>
+        <v>421.1801164420625</v>
       </c>
       <c r="K15" t="n">
-        <v>95.50371361220269</v>
+        <v>421.1801164420625</v>
       </c>
       <c r="L15" t="n">
-        <v>95.50371361220269</v>
+        <v>421.1801164420625</v>
       </c>
       <c r="M15" t="n">
-        <v>95.50371361220269</v>
+        <v>421.1801164420625</v>
       </c>
       <c r="N15" t="n">
-        <v>95.50371361220269</v>
+        <v>421.1801164420625</v>
       </c>
       <c r="O15" t="n">
-        <v>281.108591885398</v>
+        <v>421.1801164420625</v>
       </c>
       <c r="P15" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="Q15" t="n">
-        <v>1641.570696996672</v>
+        <v>1642.688774860319</v>
       </c>
       <c r="R15" t="n">
-        <v>1758.743475091012</v>
+        <v>1759.861552954659</v>
       </c>
       <c r="S15" t="n">
-        <v>1695.288037539395</v>
+        <v>1696.406115403042</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.109393869996</v>
+        <v>1566.227471733644</v>
       </c>
       <c r="U15" t="n">
-        <v>1388.772846869964</v>
+        <v>1389.890924733612</v>
       </c>
       <c r="V15" t="n">
-        <v>1189.655328931964</v>
+        <v>1190.773406795611</v>
       </c>
       <c r="W15" t="n">
-        <v>1004.332574665158</v>
+        <v>1005.450652528805</v>
       </c>
       <c r="X15" t="n">
-        <v>849.4651389040379</v>
+        <v>850.5832167676853</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.9793596832586</v>
+        <v>724.097437546906</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>945.999750689134</v>
+        <v>965.3569975954661</v>
       </c>
       <c r="C16" t="n">
-        <v>773.4380391723589</v>
+        <v>792.795286078691</v>
       </c>
       <c r="D16" t="n">
-        <v>607.5600463738816</v>
+        <v>626.9172932802137</v>
       </c>
       <c r="E16" t="n">
-        <v>437.8020426246188</v>
+        <v>457.159289530951</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0949885863751</v>
+        <v>280.4522354927071</v>
       </c>
       <c r="G16" t="n">
-        <v>95.50371361220269</v>
+        <v>185.2817407011748</v>
       </c>
       <c r="H16" t="n">
-        <v>95.50371361220269</v>
+        <v>185.2817407011748</v>
       </c>
       <c r="I16" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585012</v>
       </c>
       <c r="J16" t="n">
-        <v>182.0833987768926</v>
+        <v>183.20147664054</v>
       </c>
       <c r="K16" t="n">
-        <v>456.8418533480281</v>
+        <v>457.9599312116756</v>
       </c>
       <c r="L16" t="n">
-        <v>875.0517351159891</v>
+        <v>876.1698129796366</v>
       </c>
       <c r="M16" t="n">
-        <v>1334.535602296902</v>
+        <v>1335.65368016055</v>
       </c>
       <c r="N16" t="n">
-        <v>1776.794405454547</v>
+        <v>1777.912483318194</v>
       </c>
       <c r="O16" t="n">
-        <v>2196.463654680328</v>
+        <v>2197.581732543976</v>
       </c>
       <c r="P16" t="n">
-        <v>2543.97054865067</v>
+        <v>2545.088626514318</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.163323515002</v>
+        <v>2713.28140137865</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.163323515002</v>
+        <v>2713.28140137865</v>
       </c>
       <c r="S16" t="n">
-        <v>2552.921954812999</v>
+        <v>2713.28140137865</v>
       </c>
       <c r="T16" t="n">
-        <v>2307.042508391454</v>
+        <v>2467.401954957105</v>
       </c>
       <c r="U16" t="n">
-        <v>2028.609507644559</v>
+        <v>2188.968954210211</v>
       </c>
       <c r="V16" t="n">
-        <v>1741.653999514989</v>
+        <v>1902.013446080641</v>
       </c>
       <c r="W16" t="n">
-        <v>1469.627595101281</v>
+        <v>1629.987041666933</v>
       </c>
       <c r="X16" t="n">
-        <v>1224.235840434694</v>
+        <v>1384.595287000345</v>
       </c>
       <c r="Y16" t="n">
-        <v>996.8161697488018</v>
+        <v>1157.175616314453</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.142920993212</v>
+        <v>2523.260998856859</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.000448176635</v>
+        <v>2085.118526040283</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.09066335108</v>
+        <v>1649.208741214727</v>
       </c>
       <c r="E17" t="n">
-        <v>1214.315918509375</v>
+        <v>1215.433996373022</v>
       </c>
       <c r="F17" t="n">
-        <v>786.4484889185826</v>
+        <v>787.56656678223</v>
       </c>
       <c r="G17" t="n">
-        <v>385.0506575418465</v>
+        <v>386.1687354054939</v>
       </c>
       <c r="H17" t="n">
-        <v>95.92050298506268</v>
+        <v>97.03858084871011</v>
       </c>
       <c r="I17" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585012</v>
       </c>
       <c r="J17" t="n">
-        <v>530.7584010651207</v>
+        <v>96.62179147585012</v>
       </c>
       <c r="K17" t="n">
-        <v>1365.108693023299</v>
+        <v>96.62179147585012</v>
       </c>
       <c r="L17" t="n">
-        <v>2440.168659276158</v>
+        <v>1171.681757728709</v>
       </c>
       <c r="M17" t="n">
-        <v>2440.168659276158</v>
+        <v>2328.72959293926</v>
       </c>
       <c r="N17" t="n">
-        <v>2440.168659276158</v>
+        <v>3454.460576375707</v>
       </c>
       <c r="O17" t="n">
-        <v>3231.222955065087</v>
+        <v>4434.640242946014</v>
       </c>
       <c r="P17" t="n">
-        <v>4059.532829898483</v>
+        <v>4434.640242946014</v>
       </c>
       <c r="Q17" t="n">
-        <v>4606.031615857078</v>
+        <v>4831.089573792506</v>
       </c>
       <c r="R17" t="n">
-        <v>4775.185680610134</v>
+        <v>4831.089573792506</v>
       </c>
       <c r="S17" t="n">
-        <v>4691.533806793971</v>
+        <v>4747.437699976343</v>
       </c>
       <c r="T17" t="n">
-        <v>4471.46657966701</v>
+        <v>4527.370472849381</v>
       </c>
       <c r="U17" t="n">
-        <v>4212.244276984026</v>
+        <v>4268.148170166398</v>
       </c>
       <c r="V17" t="n">
-        <v>3849.627326917853</v>
+        <v>3905.531220100224</v>
       </c>
       <c r="W17" t="n">
-        <v>3444.771872328886</v>
+        <v>3500.675765511258</v>
       </c>
       <c r="X17" t="n">
-        <v>3025.629408908197</v>
+        <v>3081.533302090569</v>
       </c>
       <c r="Y17" t="n">
-        <v>2617.34328520785</v>
+        <v>2949.560569341767</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>601.6754586034955</v>
+        <v>602.7935364671429</v>
       </c>
       <c r="C18" t="n">
-        <v>495.2189974401377</v>
+        <v>496.3370753037852</v>
       </c>
       <c r="D18" t="n">
-        <v>400.128708586691</v>
+        <v>401.2467864503384</v>
       </c>
       <c r="E18" t="n">
-        <v>306.0082939136447</v>
+        <v>307.1263717772921</v>
       </c>
       <c r="F18" t="n">
-        <v>222.6244555298063</v>
+        <v>223.7425333934538</v>
       </c>
       <c r="G18" t="n">
-        <v>137.2393657959902</v>
+        <v>138.3574436596377</v>
       </c>
       <c r="H18" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585012</v>
       </c>
       <c r="I18" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585012</v>
       </c>
       <c r="J18" t="n">
-        <v>95.50371361220269</v>
+        <v>421.1801164420625</v>
       </c>
       <c r="K18" t="n">
-        <v>95.50371361220269</v>
+        <v>1101.91363651244</v>
       </c>
       <c r="L18" t="n">
-        <v>95.50371361220269</v>
+        <v>1642.688774860319</v>
       </c>
       <c r="M18" t="n">
-        <v>95.50371361220269</v>
+        <v>1642.688774860319</v>
       </c>
       <c r="N18" t="n">
-        <v>95.50371361220269</v>
+        <v>1642.688774860319</v>
       </c>
       <c r="O18" t="n">
-        <v>281.108591885398</v>
+        <v>1642.688774860319</v>
       </c>
       <c r="P18" t="n">
-        <v>1100.831758364596</v>
+        <v>1642.688774860319</v>
       </c>
       <c r="Q18" t="n">
-        <v>1641.570696996672</v>
+        <v>1642.688774860319</v>
       </c>
       <c r="R18" t="n">
-        <v>1758.743475091012</v>
+        <v>1759.861552954659</v>
       </c>
       <c r="S18" t="n">
-        <v>1695.288037539395</v>
+        <v>1696.406115403042</v>
       </c>
       <c r="T18" t="n">
-        <v>1565.109393869996</v>
+        <v>1566.227471733644</v>
       </c>
       <c r="U18" t="n">
-        <v>1388.772846869964</v>
+        <v>1389.890924733612</v>
       </c>
       <c r="V18" t="n">
-        <v>1189.655328931964</v>
+        <v>1190.773406795611</v>
       </c>
       <c r="W18" t="n">
-        <v>1004.332574665158</v>
+        <v>1005.450652528805</v>
       </c>
       <c r="X18" t="n">
-        <v>849.4651389040379</v>
+        <v>850.5832167676853</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.9793596832586</v>
+        <v>724.097437546906</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.999750689134</v>
+        <v>1175.679952087731</v>
       </c>
       <c r="C19" t="n">
-        <v>773.4380391723589</v>
+        <v>1003.118240570956</v>
       </c>
       <c r="D19" t="n">
-        <v>607.5600463738816</v>
+        <v>837.2402477724791</v>
       </c>
       <c r="E19" t="n">
-        <v>437.8020426246188</v>
+        <v>667.4822440232164</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0949885863751</v>
+        <v>490.7751899849726</v>
       </c>
       <c r="G19" t="n">
-        <v>95.50371361220269</v>
+        <v>325.1839150108003</v>
       </c>
       <c r="H19" t="n">
-        <v>95.50371361220269</v>
+        <v>185.2817407011748</v>
       </c>
       <c r="I19" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585012</v>
       </c>
       <c r="J19" t="n">
-        <v>182.0833987768926</v>
+        <v>183.20147664054</v>
       </c>
       <c r="K19" t="n">
-        <v>456.8418533480281</v>
+        <v>457.9599312116756</v>
       </c>
       <c r="L19" t="n">
-        <v>875.0517351159891</v>
+        <v>876.1698129796366</v>
       </c>
       <c r="M19" t="n">
-        <v>1334.535602296902</v>
+        <v>1335.65368016055</v>
       </c>
       <c r="N19" t="n">
-        <v>1776.794405454547</v>
+        <v>1777.912483318194</v>
       </c>
       <c r="O19" t="n">
-        <v>2196.463654680328</v>
+        <v>2197.581732543976</v>
       </c>
       <c r="P19" t="n">
-        <v>2543.97054865067</v>
+        <v>2545.088626514318</v>
       </c>
       <c r="Q19" t="n">
-        <v>2712.163323515002</v>
+        <v>2713.28140137865</v>
       </c>
       <c r="R19" t="n">
-        <v>2712.163323515002</v>
+        <v>2691.863580084022</v>
       </c>
       <c r="S19" t="n">
-        <v>2552.921954812998</v>
+        <v>2677.72490944937</v>
       </c>
       <c r="T19" t="n">
-        <v>2307.042508391453</v>
+        <v>2677.72490944937</v>
       </c>
       <c r="U19" t="n">
-        <v>2028.609507644559</v>
+        <v>2399.291908702476</v>
       </c>
       <c r="V19" t="n">
-        <v>1882.656199174309</v>
+        <v>2112.336400572906</v>
       </c>
       <c r="W19" t="n">
-        <v>1610.6297947606</v>
+        <v>1840.309996159198</v>
       </c>
       <c r="X19" t="n">
-        <v>1365.238040094013</v>
+        <v>1594.91824149261</v>
       </c>
       <c r="Y19" t="n">
-        <v>1137.818369408121</v>
+        <v>1367.498570806719</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2191.043714722942</v>
+        <v>2523.260998856859</v>
       </c>
       <c r="C20" t="n">
-        <v>1752.901241906366</v>
+        <v>2085.118526040283</v>
       </c>
       <c r="D20" t="n">
-        <v>1316.991457080811</v>
+        <v>1649.208741214727</v>
       </c>
       <c r="E20" t="n">
-        <v>883.2167122391058</v>
+        <v>1215.433996373022</v>
       </c>
       <c r="F20" t="n">
-        <v>455.3492826483136</v>
+        <v>787.56656678223</v>
       </c>
       <c r="G20" t="n">
-        <v>385.0506575418464</v>
+        <v>386.1687354054939</v>
       </c>
       <c r="H20" t="n">
-        <v>95.92050298506268</v>
+        <v>97.03858084871011</v>
       </c>
       <c r="I20" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585012</v>
       </c>
       <c r="J20" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585012</v>
       </c>
       <c r="K20" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585012</v>
       </c>
       <c r="L20" t="n">
-        <v>1170.563679865062</v>
+        <v>852.47823786355</v>
       </c>
       <c r="M20" t="n">
-        <v>2251.04328849478</v>
+        <v>2009.526073074101</v>
       </c>
       <c r="N20" t="n">
-        <v>2251.04328849478</v>
+        <v>3135.257056510548</v>
       </c>
       <c r="O20" t="n">
-        <v>3231.222955065087</v>
+        <v>4115.436723080854</v>
       </c>
       <c r="P20" t="n">
-        <v>4059.532829898483</v>
+        <v>4115.436723080854</v>
       </c>
       <c r="Q20" t="n">
-        <v>4606.031615857078</v>
+        <v>4661.935509039449</v>
       </c>
       <c r="R20" t="n">
-        <v>4775.185680610134</v>
+        <v>4831.089573792506</v>
       </c>
       <c r="S20" t="n">
-        <v>4691.533806793971</v>
+        <v>4747.437699976343</v>
       </c>
       <c r="T20" t="n">
-        <v>4471.46657966701</v>
+        <v>4527.370472849381</v>
       </c>
       <c r="U20" t="n">
-        <v>4212.244276984026</v>
+        <v>4268.148170166398</v>
       </c>
       <c r="V20" t="n">
-        <v>3849.627326917853</v>
+        <v>3905.531220100224</v>
       </c>
       <c r="W20" t="n">
-        <v>3444.771872328886</v>
+        <v>3776.989156462803</v>
       </c>
       <c r="X20" t="n">
-        <v>3025.629408908197</v>
+        <v>3357.846693042114</v>
       </c>
       <c r="Y20" t="n">
-        <v>2617.34328520785</v>
+        <v>2949.560569341767</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>601.6754586034955</v>
+        <v>602.7935364671429</v>
       </c>
       <c r="C21" t="n">
-        <v>495.2189974401377</v>
+        <v>496.3370753037852</v>
       </c>
       <c r="D21" t="n">
-        <v>400.128708586691</v>
+        <v>401.2467864503384</v>
       </c>
       <c r="E21" t="n">
-        <v>306.0082939136447</v>
+        <v>307.1263717772921</v>
       </c>
       <c r="F21" t="n">
-        <v>222.6244555298063</v>
+        <v>223.7425333934538</v>
       </c>
       <c r="G21" t="n">
-        <v>137.2393657959902</v>
+        <v>138.3574436596377</v>
       </c>
       <c r="H21" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585012</v>
       </c>
       <c r="I21" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585012</v>
       </c>
       <c r="J21" t="n">
-        <v>95.50371361220269</v>
+        <v>421.1801164420625</v>
       </c>
       <c r="K21" t="n">
-        <v>95.50371361220269</v>
+        <v>805.3185041435551</v>
       </c>
       <c r="L21" t="n">
-        <v>95.50371361220269</v>
+        <v>1759.861552954659</v>
       </c>
       <c r="M21" t="n">
-        <v>95.50371361220269</v>
+        <v>1759.861552954659</v>
       </c>
       <c r="N21" t="n">
-        <v>95.50371361220269</v>
+        <v>1759.861552954659</v>
       </c>
       <c r="O21" t="n">
-        <v>281.108591885398</v>
+        <v>1759.861552954659</v>
       </c>
       <c r="P21" t="n">
-        <v>1100.831758364596</v>
+        <v>1759.861552954659</v>
       </c>
       <c r="Q21" t="n">
-        <v>1641.570696996672</v>
+        <v>1759.861552954659</v>
       </c>
       <c r="R21" t="n">
-        <v>1758.743475091012</v>
+        <v>1759.861552954659</v>
       </c>
       <c r="S21" t="n">
-        <v>1695.288037539395</v>
+        <v>1696.406115403042</v>
       </c>
       <c r="T21" t="n">
-        <v>1565.109393869996</v>
+        <v>1566.227471733644</v>
       </c>
       <c r="U21" t="n">
-        <v>1388.772846869964</v>
+        <v>1389.890924733612</v>
       </c>
       <c r="V21" t="n">
-        <v>1189.655328931964</v>
+        <v>1190.773406795611</v>
       </c>
       <c r="W21" t="n">
-        <v>1004.332574665158</v>
+        <v>1005.450652528805</v>
       </c>
       <c r="X21" t="n">
-        <v>849.4651389040379</v>
+        <v>850.5832167676853</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.9793596832586</v>
+        <v>724.097437546906</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>945.9997506891342</v>
+        <v>1175.679952087731</v>
       </c>
       <c r="C22" t="n">
-        <v>773.4380391723588</v>
+        <v>1003.118240570956</v>
       </c>
       <c r="D22" t="n">
-        <v>607.5600463738815</v>
+        <v>837.2402477724791</v>
       </c>
       <c r="E22" t="n">
-        <v>437.8020426246188</v>
+        <v>667.4822440232164</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0949885863751</v>
+        <v>490.7751899849726</v>
       </c>
       <c r="G22" t="n">
-        <v>95.50371361220269</v>
+        <v>325.1839150108003</v>
       </c>
       <c r="H22" t="n">
-        <v>95.50371361220269</v>
+        <v>185.2817407011748</v>
       </c>
       <c r="I22" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585012</v>
       </c>
       <c r="J22" t="n">
-        <v>182.0833987768926</v>
+        <v>183.20147664054</v>
       </c>
       <c r="K22" t="n">
-        <v>456.8418533480281</v>
+        <v>457.9599312116756</v>
       </c>
       <c r="L22" t="n">
-        <v>875.0517351159891</v>
+        <v>876.1698129796366</v>
       </c>
       <c r="M22" t="n">
-        <v>1334.535602296902</v>
+        <v>1335.65368016055</v>
       </c>
       <c r="N22" t="n">
-        <v>1776.794405454547</v>
+        <v>1777.912483318194</v>
       </c>
       <c r="O22" t="n">
-        <v>2196.463654680328</v>
+        <v>2197.581732543976</v>
       </c>
       <c r="P22" t="n">
-        <v>2543.97054865067</v>
+        <v>2545.088626514318</v>
       </c>
       <c r="Q22" t="n">
-        <v>2712.163323515002</v>
+        <v>2713.28140137865</v>
       </c>
       <c r="R22" t="n">
-        <v>2712.163323515002</v>
+        <v>2713.28140137865</v>
       </c>
       <c r="S22" t="n">
-        <v>2693.924154472318</v>
+        <v>2713.28140137865</v>
       </c>
       <c r="T22" t="n">
-        <v>2448.044708050773</v>
+        <v>2467.401954957105</v>
       </c>
       <c r="U22" t="n">
-        <v>2169.611707303879</v>
+        <v>2188.968954210211</v>
       </c>
       <c r="V22" t="n">
-        <v>1882.656199174309</v>
+        <v>1902.013446080641</v>
       </c>
       <c r="W22" t="n">
-        <v>1610.629794760601</v>
+        <v>1840.309996159198</v>
       </c>
       <c r="X22" t="n">
-        <v>1365.238040094013</v>
+        <v>1594.91824149261</v>
       </c>
       <c r="Y22" t="n">
-        <v>1137.818369408121</v>
+        <v>1367.498570806719</v>
       </c>
     </row>
     <row r="23">
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1801.89582945662</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1529.869425042911</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1284.477670376323</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2543.949475689632</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2298.070029268087</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2019.637028521192</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1732.681520391623</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1460.655115977914</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1460.655115977914</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6467,46 +6467,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1015.441008084184</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.60800300514</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795275</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1207.259626803171</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1011.560997133398</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>838.9992856166232</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1203.379615852385</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -7014,19 +7014,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O36" t="n">
         <v>287.8657185439749</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992528</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886291</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>760.880759503028</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666414</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412737</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799775</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832282</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708294</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773249</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806457</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1405.586141896919</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1863.918298289923</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751064</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956766</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056459</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174706</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.647500885579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.16776187691</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542891</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826198</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825366</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571655</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.939960298639</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M38" t="n">
-        <v>1254.614538886369</v>
+        <v>1228.461808239092</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.192791675538</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245844</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.68233307924</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037835</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750117</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574027</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278743</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.60290339162182</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581783</v>
+        <v>422.1612283578341</v>
       </c>
       <c r="K39" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L39" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M39" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N39" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O39" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P39" t="n">
         <v>1102.894748428211</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397565</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936664</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080651</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716785</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463116</v>
+        <v>442.5209799463108</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850146</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882652</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,10 +7348,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
         <v>2837.795025579744</v>
@@ -7363,7 +7363,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
@@ -7372,10 +7372,10 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
     <row r="41">
@@ -7385,64 +7385,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C41" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>1228.461808239093</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="O41" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245846</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.68233307924</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037835</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
@@ -7451,7 +7451,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y41" t="n">
         <v>2835.290740278742</v>
@@ -7482,28 +7482,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.60290339162182</v>
       </c>
       <c r="J42" t="n">
-        <v>97.56670367581783</v>
+        <v>422.1612283578341</v>
       </c>
       <c r="K42" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L42" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M42" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N42" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O42" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7576,43 +7576,43 @@
         <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1400.892005301956</v>
       </c>
       <c r="N43" t="n">
         <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2294.966764156102</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
         <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390329</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.7629969615</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581783</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>97.56670367581783</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>97.56670367581783</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="M44" t="n">
-        <v>1254.614538886369</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="N44" t="n">
-        <v>2380.345522322816</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O44" t="n">
-        <v>3360.525188893122</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.68233307924</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037835</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.29074027874</v>
       </c>
     </row>
     <row r="45">
@@ -7719,25 +7719,25 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="N45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="O45" t="n">
         <v>283.1715819490133</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397565</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936664</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080651</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716785</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463108</v>
       </c>
       <c r="G46" t="n">
         <v>293.3294123850158</v>
@@ -7801,7 +7801,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7834,10 +7834,10 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V46" t="n">
         <v>1932.884531231236</v>
@@ -7846,10 +7846,10 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
   </sheetData>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8143,19 +8143,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>117.3049970300782</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8301,19 +8301,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>44.41372909529082</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8462,13 +8462,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>405.4570665843193</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>575.8017250670762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>575.8017250670762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,10 +8526,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>413.3542058338694</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>575.8017250670762</v>
+        <v>566.3319231075541</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,7 +8614,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>59.28589305868672</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -8696,16 +8696,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>809.8569354960547</v>
+        <v>1149.095686011104</v>
       </c>
       <c r="N11" t="n">
-        <v>1135.119712715511</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>550.794807367809</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8766,13 +8766,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>687.6461816022033</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,13 +8927,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>97.67741041147508</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.210698430435</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022031</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>799.0447432211404</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>400.4538695419105</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>546.2375134827064</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9404,19 +9404,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>763.4913599875757</v>
       </c>
       <c r="M20" t="n">
-        <v>1091.393544070423</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9477,13 +9477,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>388.0185734358511</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10662,7 +10662,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -10829,10 +10829,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>1142.318287437651</v>
       </c>
       <c r="N38" t="n">
-        <v>1110.685103827444</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.03656536949897315</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,25 +11057,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1142.318287437652</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>747.748502191072</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.03656536949895894</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,25 +11294,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>810.2597416021399</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>18.21713817568946</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>16.71773239240356</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>196.5099998636518</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>283.3962684079339</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>120.4463752142715</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>160.7958207444071</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>273.5502570420296</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7882142075662</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>69.71657238081359</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>327.7882142075661</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>273.5502570420294</v>
       </c>
     </row>
     <row r="18">
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>143.6516710866782</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>327.7882142075662</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>273.5502570420297</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627262</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>208.2197249473428</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>74.1534993319045</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24619,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>5.631333357556819</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.00051207685013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.0118993322379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.151079231931362e-12</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>831028.3458301333</v>
+        <v>818659.9196270346</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>748091.5691235459</v>
+        <v>754783.44827863</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>776186.7455439667</v>
+        <v>782878.6246990504</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>776186.7455439665</v>
+        <v>782878.6246990506</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>776186.7455439665</v>
+        <v>782878.6246990504</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>816629.2554128963</v>
+        <v>816629.2554128962</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>816629.2554128963</v>
+        <v>816629.2554128962</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>831028.3458301333</v>
+        <v>816629.2554128962</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>107229.4639780817</v>
+        <v>105633.5380163915</v>
       </c>
       <c r="C2" t="n">
         <v>107229.4639780817</v>
@@ -26320,16 +26320,16 @@
         <v>107229.4639780817</v>
       </c>
       <c r="E2" t="n">
-        <v>96527.94440303817</v>
+        <v>97391.41268111355</v>
       </c>
       <c r="F2" t="n">
-        <v>100153.128457286</v>
+        <v>101016.5967353614</v>
       </c>
       <c r="G2" t="n">
-        <v>100153.128457286</v>
+        <v>101016.5967353614</v>
       </c>
       <c r="H2" t="n">
-        <v>100153.128457286</v>
+        <v>101016.5967353614</v>
       </c>
       <c r="I2" t="n">
         <v>105371.5168274705</v>
@@ -26344,7 +26344,7 @@
         <v>105371.5168274705</v>
       </c>
       <c r="M2" t="n">
-        <v>107229.4639780818</v>
+        <v>105371.5168274705</v>
       </c>
       <c r="N2" t="n">
         <v>107229.4639780817</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>47062.26763611586</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>167000.0461160944</v>
+        <v>143789.3363792628</v>
       </c>
       <c r="F3" t="n">
-        <v>16812.40227510031</v>
+        <v>16812.40227510025</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22460.77347719299</v>
+        <v>18744.26868245561</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>38344.77152333065</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>152372.8480649385</v>
+        <v>120011.7817892068</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>12988.56827099788</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>108949.8962483645</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>134494.1447157765</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>738.6588950339622</v>
+        <v>745.2663963966447</v>
       </c>
       <c r="F4" t="n">
-        <v>766.3998198445515</v>
+        <v>773.0073212072341</v>
       </c>
       <c r="G4" t="n">
-        <v>766.3998198445515</v>
+        <v>773.0073212072341</v>
       </c>
       <c r="H4" t="n">
-        <v>766.3998198445515</v>
+        <v>773.0073212072341</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26442,22 +26442,22 @@
         <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907825455</v>
       </c>
       <c r="L4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>6148.690207415864</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>16466.62778780237</v>
+        <v>16466.62778780233</v>
       </c>
       <c r="O4" t="n">
-        <v>16466.62778780235</v>
+        <v>16466.62778780233</v>
       </c>
       <c r="P4" t="n">
-        <v>16466.62778780235</v>
+        <v>16466.62778780233</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>68636.34488407822</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>69015.27853310306</v>
+        <v>69865.01770947513</v>
       </c>
       <c r="F5" t="n">
-        <v>72582.82234527403</v>
+        <v>73432.56152164609</v>
       </c>
       <c r="G5" t="n">
-        <v>72582.82234527403</v>
+        <v>73432.56152164609</v>
       </c>
       <c r="H5" t="n">
-        <v>72582.82234527403</v>
+        <v>73432.56152164609</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>79083.15853826067</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608973</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-263554.7180886103</v>
+        <v>-301248.5304522967</v>
       </c>
       <c r="C6" t="n">
-        <v>-121363.4174289004</v>
+        <v>-80487.46680192662</v>
       </c>
       <c r="D6" t="n">
-        <v>-142963.2932578888</v>
+        <v>-80487.4668019266</v>
       </c>
       <c r="E6" t="n">
-        <v>-140226.0391411933</v>
+        <v>-117131.1834452331</v>
       </c>
       <c r="F6" t="n">
-        <v>9991.504017067113</v>
+        <v>9920.964776873796</v>
       </c>
       <c r="G6" t="n">
-        <v>26803.9062921674</v>
+        <v>26733.36705197403</v>
       </c>
       <c r="H6" t="n">
-        <v>26803.90629216745</v>
+        <v>26733.36705197404</v>
       </c>
       <c r="I6" t="n">
-        <v>4386.172353702364</v>
+        <v>8079.452809057107</v>
       </c>
       <c r="J6" t="n">
-        <v>-84167.51951409483</v>
+        <v>-147827.6272261934</v>
       </c>
       <c r="K6" t="n">
-        <v>26846.94583089535</v>
+        <v>26823.72149151278</v>
       </c>
       <c r="L6" t="n">
-        <v>-11497.8256924353</v>
+        <v>26823.72149151272</v>
       </c>
       <c r="M6" t="n">
-        <v>-130375.2328325332</v>
+        <v>-93188.06029769412</v>
       </c>
       <c r="N6" t="n">
-        <v>15247.22146418958</v>
+        <v>2258.6531931918</v>
       </c>
       <c r="O6" t="n">
         <v>15247.22146418967</v>
       </c>
       <c r="P6" t="n">
-        <v>15247.22146418967</v>
+        <v>15247.22146418966</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>575.8017250670762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1135.119712715511</v>
+        <v>1149.095686011104</v>
       </c>
       <c r="F4" t="n">
-        <v>1193.796420152534</v>
+        <v>1207.772393448126</v>
       </c>
       <c r="G4" t="n">
-        <v>1193.796420152534</v>
+        <v>1207.772393448126</v>
       </c>
       <c r="H4" t="n">
-        <v>1193.796420152534</v>
+        <v>1207.772393448126</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5058675469718</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>559.3179876484348</v>
+        <v>481.5804794032473</v>
       </c>
       <c r="F4" t="n">
-        <v>58.67670743702251</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>84.46408323221181</v>
+        <v>70.48810993661883</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>151.5058675469718</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>559.3179876484348</v>
+        <v>481.5804794032473</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>151.5058675469718</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>559.3179876484348</v>
+        <v>481.5804794032473</v>
       </c>
       <c r="N4" t="n">
-        <v>58.67670743702251</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>155.5340356063365</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>269.5211206188123</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>90.2200092229012</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.1524179024424</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27667,19 +27667,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.8761960342131</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>3.329665100430134</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>14.92920168042096</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>140.7232059832942</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>295.6837132199023</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>25.42011696151587</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>5.604550738944965</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>161.9268490649755</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874771</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
   </sheetData>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34863,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>117.3049970300782</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35021,19 +35021,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>44.41372909529082</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35182,13 +35182,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>405.4570665843193</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>575.8017250670762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>575.8017250670762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,10 +35246,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>413.3542058338694</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>575.8017250670762</v>
+        <v>566.3319231075541</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>59.28589305868672</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -35346,7 +35346,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35416,16 +35416,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>809.8569354960547</v>
+        <v>1149.095686011104</v>
       </c>
       <c r="N11" t="n">
-        <v>1135.119712715511</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>550.794807367809</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>687.6461816022033</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,13 +35647,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>97.67741041147508</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.210698430435</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022031</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473919</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>799.0447432211404</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>400.4538695419105</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>546.2375134827064</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,13 +35975,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36124,19 +36124,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>763.4913599875757</v>
       </c>
       <c r="M20" t="n">
-        <v>1091.393544070423</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>388.0185734358511</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36212,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36771,7 +36771,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>1142.318287437651</v>
       </c>
       <c r="N38" t="n">
-        <v>1110.685103827444</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.03656536949897315</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1142.318287437652</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>747.748502191072</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.03656536949895894</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37944,16 +37944,16 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>480.3608287033056</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>462.9617741343477</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
         <v>186.1274021209015</v>
@@ -38014,25 +38014,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>810.2597416021399</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
